--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3760.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3760.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.267018855912729</v>
+        <v>0.6077240705490112</v>
       </c>
       <c r="B1">
-        <v>2.578060773065121</v>
+        <v>1.380396723747253</v>
       </c>
       <c r="C1">
-        <v>3.905145429625741</v>
+        <v>5.642730236053467</v>
       </c>
       <c r="D1">
-        <v>3.73024194324759</v>
+        <v>1.624944090843201</v>
       </c>
       <c r="E1">
-        <v>1.139289200160881</v>
+        <v>1.079240202903748</v>
       </c>
     </row>
   </sheetData>
